--- a/data/trans_dic/P1414-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.03453100723523843</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04483558630564381</v>
+        <v>0.0448355863056438</v>
       </c>
     </row>
     <row r="5">
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002675187102103944</v>
+        <v>0.002787178193782272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003443997799144564</v>
+        <v>0.003526520517122655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02916871704829999</v>
+        <v>0.02809870611051439</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04752814055282641</v>
+        <v>0.04709397577822234</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05695620583872776</v>
+        <v>0.05612970190142885</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01482240230328374</v>
+        <v>0.01504487381912069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02750729281897733</v>
+        <v>0.02675408162039693</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03513241689008105</v>
+        <v>0.03545019108425523</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.005559982448844926</v>
+        <v>0.004834782756470586</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01280272938167389</v>
+        <v>0.01288113844531282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02229918245755195</v>
+        <v>0.02274260805823211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05285911167476254</v>
+        <v>0.05247194665422316</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0745480582734358</v>
+        <v>0.07514185180110082</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09084288233957605</v>
+        <v>0.09061608004563772</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02762615014061201</v>
+        <v>0.02765747500907745</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04321067829067193</v>
+        <v>0.04256583745717863</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05699388206471463</v>
+        <v>0.05588138778519277</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.01531415707602793</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02654783836586984</v>
+        <v>0.02654783836586985</v>
       </c>
     </row>
     <row r="8">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001120918495960336</v>
+        <v>0.001122213893514379</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01311948218497381</v>
+        <v>0.01344521844066913</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01754038113413158</v>
+        <v>0.01693583283425454</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03757164056600783</v>
+        <v>0.03770595669931868</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007971701848385403</v>
+        <v>0.007987961188473747</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01057865697842876</v>
+        <v>0.01038752559995168</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02144260223590755</v>
+        <v>0.02099049931673356</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007782398235045737</v>
+        <v>0.007708452837942436</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0113782165102426</v>
+        <v>0.01250634352786066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01144951412022436</v>
+        <v>0.01149389873008179</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0326723836342926</v>
+        <v>0.03237873075571657</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03792256342324265</v>
+        <v>0.03763315942370159</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.057527598181248</v>
+        <v>0.05864124939722819</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01817166533268579</v>
+        <v>0.01804345984430077</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02234789156128366</v>
+        <v>0.02163251450452989</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03268462554002884</v>
+        <v>0.0331372760809556</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.003806645115178625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.001160702009916213</v>
+        <v>0.001160702009916212</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02162239778439782</v>
@@ -873,7 +873,7 @@
         <v>0.02571105034426789</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03298484605714417</v>
+        <v>0.03298484605714416</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01250719386151458</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001090368809930575</v>
+        <v>0.001096908923530473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001231779352415765</v>
+        <v>0.001242254931430446</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01302554418413329</v>
+        <v>0.01320895101193624</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01621475019293835</v>
+        <v>0.01511803096717519</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0254813144156749</v>
+        <v>0.02531582165580617</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00771284029086997</v>
+        <v>0.007922968090206697</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009046930299647241</v>
+        <v>0.008699467712501003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01305203163656298</v>
+        <v>0.01306460360702901</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009586280774416513</v>
+        <v>0.01065920300596727</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0103344109365042</v>
+        <v>0.01024830817323209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.004386202509942777</v>
+        <v>0.004088999035384487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03257549983686676</v>
+        <v>0.03291546745661388</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03987873460906238</v>
+        <v>0.03923244777142555</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04340198345476275</v>
+        <v>0.04270790425042909</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01916563214562233</v>
+        <v>0.01863917634958594</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02116035913263708</v>
+        <v>0.02151812185313673</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02146302136538686</v>
+        <v>0.02237739938158521</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.005048523347291169</v>
+        <v>0.00504852334729117</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.01386986022258388</v>
@@ -991,7 +991,7 @@
         <v>0.004395303794547984</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.01436458661208748</v>
+        <v>0.01436458661208747</v>
       </c>
     </row>
     <row r="14">
@@ -1006,25 +1006,25 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.001776002184849067</v>
+        <v>0.002041724658395254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005040205470425553</v>
+        <v>0.00639346665883441</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002205559531759763</v>
+        <v>0.002151108892089681</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01731326169985185</v>
+        <v>0.01756850752911214</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003221773032536649</v>
+        <v>0.003249545641703986</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001061565227354332</v>
+        <v>0.001053409178175077</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01027318016349691</v>
+        <v>0.01063278792362854</v>
       </c>
     </row>
     <row r="15">
@@ -1035,29 +1035,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01256790043096463</v>
+        <v>0.01118456210614769</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01075831955117105</v>
+        <v>0.01093074485810957</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02891687018182002</v>
+        <v>0.03018778541244361</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02137703171857015</v>
+        <v>0.02023512611270418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03299390795726639</v>
+        <v>0.03295896338254052</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01502871887549463</v>
+        <v>0.01556131583375732</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01092452358569785</v>
+        <v>0.01081618266374943</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.018913766626764</v>
+        <v>0.01932230067060549</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.000935711633269532</v>
+        <v>0.0009260790168300586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0022304885255647</v>
+        <v>0.002439146497858089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002206151023679687</v>
+        <v>0.002175160968969923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0208295904462984</v>
+        <v>0.02076277482099233</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02940800416016153</v>
+        <v>0.0303001103688847</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03693926013608912</v>
+        <v>0.03681334179266894</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01146578465348833</v>
+        <v>0.01147916579044052</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01725656934290334</v>
+        <v>0.01665523252610836</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02045335452865759</v>
+        <v>0.02073704886044537</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.004653755539854025</v>
+        <v>0.004337172580034578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.006743479847126487</v>
+        <v>0.007103680606813971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006669055537746562</v>
+        <v>0.006974402916915593</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0320535592826602</v>
+        <v>0.03170907189242322</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04255643857644923</v>
+        <v>0.04265224762223147</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0471873918545942</v>
+        <v>0.04738215800441378</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0175162764932658</v>
+        <v>0.01723692541465029</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02407359191832652</v>
+        <v>0.02372804019777633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02638298839543985</v>
+        <v>0.0267407845076286</v>
       </c>
     </row>
     <row r="19">
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3018</v>
+        <v>3144</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1708</v>
+        <v>1749</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32630</v>
+        <v>31433</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59865</v>
+        <v>59318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35124</v>
+        <v>34615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>32055</v>
+        <v>32536</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>65675</v>
+        <v>63877</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>39088</v>
+        <v>39441</v>
       </c>
     </row>
     <row r="7">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5804</v>
+        <v>5047</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14441</v>
+        <v>14530</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11058</v>
+        <v>11278</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59131</v>
+        <v>58698</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>93898</v>
+        <v>94646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56022</v>
+        <v>55882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>59744</v>
+        <v>59812</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>103168</v>
+        <v>101628</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63411</v>
+        <v>62173</v>
       </c>
     </row>
     <row r="8">
@@ -1542,28 +1542,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14318</v>
+        <v>14674</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17654</v>
+        <v>17045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41741</v>
+        <v>41890</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16489</v>
+        <v>16523</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20261</v>
+        <v>19895</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44369</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="11">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7604</v>
+        <v>7532</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10341</v>
+        <v>11366</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10971</v>
+        <v>11014</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35657</v>
+        <v>35337</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38168</v>
+        <v>37877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63912</v>
+        <v>65149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37587</v>
+        <v>37322</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42803</v>
+        <v>41433</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>67631</v>
+        <v>68568</v>
       </c>
     </row>
     <row r="12">
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11408</v>
+        <v>11568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12503</v>
+        <v>11657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26679</v>
+        <v>26505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13582</v>
+        <v>13952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14428</v>
+        <v>13874</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27308</v>
+        <v>27335</v>
       </c>
     </row>
     <row r="15">
@@ -1718,31 +1718,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8485</v>
+        <v>9435</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8513</v>
+        <v>8442</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4585</v>
+        <v>4274</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28529</v>
+        <v>28827</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30749</v>
+        <v>30251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45441</v>
+        <v>44715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33749</v>
+        <v>32822</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33747</v>
+        <v>34317</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44907</v>
+        <v>46820</v>
       </c>
     </row>
     <row r="16">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>1732</v>
+        <v>1991</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2282</v>
+        <v>2895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15642</v>
+        <v>15873</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3079</v>
+        <v>3106</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19301</v>
+        <v>19977</v>
       </c>
     </row>
     <row r="19">
@@ -1860,29 +1860,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6322</v>
+        <v>5626</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>10493</v>
+        <v>10661</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13092</v>
+        <v>13667</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10468</v>
+        <v>9909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29809</v>
+        <v>29778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14364</v>
+        <v>14873</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10885</v>
+        <v>10777</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35535</v>
+        <v>36303</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3190</v>
+        <v>3157</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7511</v>
+        <v>8213</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7666</v>
+        <v>7558</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>73706</v>
+        <v>73470</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>103716</v>
+        <v>106862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>135867</v>
+        <v>135404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>79661</v>
+        <v>79754</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>118968</v>
+        <v>114822</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>146300</v>
+        <v>148330</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15865</v>
+        <v>14786</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22707</v>
+        <v>23920</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23173</v>
+        <v>24234</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>113423</v>
+        <v>112204</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>150088</v>
+        <v>150426</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>173561</v>
+        <v>174278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>121698</v>
+        <v>119757</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>165965</v>
+        <v>163583</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>188714</v>
+        <v>191274</v>
       </c>
     </row>
     <row r="24">
